--- a/public/template/bill.xlsx
+++ b/public/template/bill.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$L$32</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,16 +27,140 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>PHIẾU XUẤT KHO</t>
+  </si>
+  <si>
+    <t>Thông tin khách</t>
+  </si>
+  <si>
+    <t>Khách</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>Tiền cần thanh toán (đơn vị đ)</t>
+  </si>
+  <si>
+    <t>a. Tiền (2+3+4+5)</t>
+  </si>
+  <si>
+    <t>b. Số dư hiện tại</t>
+  </si>
+  <si>
+    <t>Số dư sau khi xuất kho (b - a)</t>
+  </si>
+  <si>
+    <t>Thông tin phiếu xuất (đơn vị đ)</t>
+  </si>
+  <si>
+    <t>1. Cân nặng(kg)</t>
+  </si>
+  <si>
+    <t>2. Tiền cân</t>
+  </si>
+  <si>
+    <t>3. Đóng gỗ</t>
+  </si>
+  <si>
+    <t>4. Vận chuyển phát sinh</t>
+  </si>
+  <si>
+    <t>5. Thanh lý</t>
+  </si>
+  <si>
+    <t>Thông tin gói hàng</t>
+  </si>
+  <si>
+    <t>Công thức quy đổi: (kg) = Dài (cm) x rộng (cm) x cao (cm)/ 6000</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>Mã kiện</t>
+  </si>
+  <si>
+    <t>Đơn hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh lý(đ) </t>
+  </si>
+  <si>
+    <t>Dịch vụ</t>
+  </si>
+  <si>
+    <t>Cân nặng</t>
+  </si>
+  <si>
+    <t>Quy đổi(kg)</t>
+  </si>
+  <si>
+    <t>Đơn giá(đ)</t>
+  </si>
+  <si>
+    <t>Thành tiền(đ)</t>
+  </si>
+  <si>
+    <t>Đóng gỗ(đ)</t>
+  </si>
+  <si>
+    <t>Cước vận chuyển
+phát sinh</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Chi tiết link</t>
+  </si>
+  <si>
+    <t>Mã đơn</t>
+  </si>
+  <si>
+    <t>Mã link</t>
+  </si>
+  <si>
+    <t>Mô tả màu sắc</t>
+  </si>
+  <si>
+    <t>Kích thước</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Giá</t>
+  </si>
+  <si>
+    <t>SL đặt</t>
+  </si>
+  <si>
+    <t>Còn lại</t>
+  </si>
+  <si>
+    <t>Xuất kho</t>
+  </si>
+  <si>
+    <t>Ghi chú kho</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Nhân viên xuất kho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +175,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF23282C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -57,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,17 +225,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,60 +602,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L4"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L4"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="24"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="7" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="39">
     <mergeCell ref="B2:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L28"/>
+    <mergeCell ref="I29:L29"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>